--- a/biology/Zoologie/Elachistocleis_panamensis/Elachistocleis_panamensis.xlsx
+++ b/biology/Zoologie/Elachistocleis_panamensis/Elachistocleis_panamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis panamensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis panamensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 600 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 600 m d'altitude, :
 en Colombie ;
 au Panama.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis panamensis[3] mesure jusqu'à 26 mm. Son dos est brun clair et présente une grande tache irrégulière noire qui commence entre les yeux. Sa face ventrale est blanche avec des taches brunes plus denses au niveau de la gorge.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis panamensis mesure jusqu'à 26 mm. Son dos est brun clair et présente une grande tache irrégulière noire qui commence entre les yeux. Sa face ventrale est blanche avec des taches brunes plus denses au niveau de la gorge.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de panam[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Panama.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dunn, Trapido &amp; Evans, 1948 : A new species of the microhylid frog genus Chiasmocleis from Panama. American Museum novitates, no 1376, p. 1-8 (texte intégral).</t>
         </is>
